--- a/design_file/Datapath&Ctrl.xlsx
+++ b/design_file/Datapath&Ctrl.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\tjx_riscv_2021_07_06\mini-rv-1_-design\design_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\tjx_riscv_2021_07_07\mini-rv-1_-design\design_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表(含控制信号)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="117">
   <si>
     <t>所属单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,18 @@
   <si>
     <t>0: RF.rD2
 1: SEXT.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +661,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,11 +672,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -1009,27 +1021,27 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1038,30 +1050,30 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="20"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1970,10 +1982,10 @@
       <c r="C29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="20" t="s">
         <v>111</v>
       </c>
       <c r="F29" s="19" t="s">
@@ -1988,7 +2000,7 @@
       <c r="I29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="20" t="s">
         <v>112</v>
       </c>
       <c r="K29" s="3" t="s">
@@ -1997,7 +2009,7 @@
       <c r="L29" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="20" t="s">
         <v>113</v>
       </c>
       <c r="N29" s="19" t="s">
@@ -2128,13 +2140,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="D3:E3"/>
@@ -2143,6 +2148,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2154,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2175,24 +2187,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="9" t="s">
         <v>73</v>
       </c>
@@ -2658,7 +2670,7 @@
         <v>88</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>102</v>
@@ -2693,7 +2705,7 @@
         <v>88</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>103</v>
@@ -2728,7 +2740,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>104</v>
@@ -3071,6 +3083,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/design_file/Datapath&Ctrl.xlsx
+++ b/design_file/Datapath&Ctrl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\tjx_riscv_2021_07_07\mini-rv-1_-design\design_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_document\git_repositories\mini-rv-1_-design\design_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EE3C7A-F57E-4FD2-AB91-31F9BD8B54C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表(含控制信号)" sheetId="1" r:id="rId1"/>
@@ -298,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC.pc4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IROM.inst[31|19:12|20|30:21]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,34 +469,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0: RF.rD2
+1: SEXT.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC.pc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>00: ALU.C
 01: DRAM.rd
-10: NPC.pc4
+10: PC.pc4
 11: SEXT.ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: RF.rD2
-1: SEXT.ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'b101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'b101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'b101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -663,6 +664,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,9 +674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,11 +992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1021,27 +1022,27 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1050,30 +1051,30 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="24"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1721,7 +1722,7 @@
         <v>36</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>63</v>
@@ -1936,7 +1937,7 @@
         <v>64</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -1965,10 +1966,10 @@
         <v>36</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1983,10 +1984,10 @@
         <v>31</v>
       </c>
       <c r="D29" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>32</v>
@@ -2001,16 +2002,16 @@
         <v>36</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>38</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N29" s="19" t="s">
         <v>37</v>
@@ -2024,37 +2025,37 @@
         <v>25</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="22"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="M30" s="23"/>
+      <c r="N30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O30" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -2062,43 +2063,43 @@
         <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -2106,32 +2107,32 @@
         <v>26</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="23"/>
       <c r="F32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="M32" s="22"/>
-      <c r="N32" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="O32" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="23"/>
+      <c r="N32" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O32" s="23"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
@@ -2140,6 +2141,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="D3:E3"/>
@@ -2148,13 +2156,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2163,10 +2164,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2190,50 +2191,50 @@
       <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
       <c r="C3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="L3" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2241,19 +2242,19 @@
         <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="13">
         <v>0</v>
@@ -2268,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -2276,19 +2277,19 @@
         <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="13">
         <v>0</v>
@@ -2303,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -2311,34 +2312,34 @@
         <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="12">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2346,19 +2347,19 @@
         <v>42</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="13">
         <v>0</v>
@@ -2373,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2381,19 +2382,19 @@
         <v>43</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="13">
         <v>0</v>
@@ -2408,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -2416,19 +2417,19 @@
         <v>44</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="12">
         <v>0</v>
@@ -2443,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -2451,19 +2452,19 @@
         <v>45</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="12">
         <v>0</v>
@@ -2478,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -2486,19 +2487,19 @@
         <v>46</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
@@ -2513,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -2521,19 +2522,19 @@
         <v>47</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -2548,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -2556,19 +2557,19 @@
         <v>48</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -2583,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -2591,19 +2592,19 @@
         <v>49</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -2618,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -2626,19 +2627,19 @@
         <v>50</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -2653,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -2661,19 +2662,19 @@
         <v>51</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -2688,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -2696,19 +2697,19 @@
         <v>52</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -2723,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -2731,19 +2732,19 @@
         <v>53</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -2758,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -2766,19 +2767,19 @@
         <v>54</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -2793,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -2801,22 +2802,22 @@
         <v>55</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
@@ -2836,19 +2837,19 @@
         <v>56</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -2863,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -2871,19 +2872,19 @@
         <v>57</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -2906,19 +2907,19 @@
         <v>58</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="5">
         <v>0</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -2941,19 +2942,19 @@
         <v>59</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="5">
         <v>0</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -2976,19 +2977,19 @@
         <v>60</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -3011,22 +3012,22 @@
         <v>61</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>84</v>
-      </c>
       <c r="F26" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -3038,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -3046,22 +3047,22 @@
         <v>62</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="F27" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
